--- a/NaviGames.xlsx
+++ b/NaviGames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Code\NaviBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6C343E21-623F-4607-89D4-A80ECAA61A17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85E544F1-8766-475E-A441-510A96FC3086}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2329,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
